--- a/biology/Médecine/Classe_ATC_A04/Classe_ATC_A04.xlsx
+++ b/biology/Médecine/Classe_ATC_A04/Classe_ATC_A04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC A04, dénommée « Antiémétiques et antinauséeux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA04[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC A04, dénommée « Antiémétiques et antinauséeux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA04. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
 </t>
         </is>
       </c>
@@ -513,15 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A04AA antagonistes de la sérotonine (Antagonistes 5HT3)
-A04AA01 Ondansétron
+          <t>A04AA antagonistes de la sérotonine (Antagonistes 5HT3)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A04AA01 Ondansétron
 A04AA02 Granisétron
 A04AA03 Tropisetron
 A04AA04 Dolasétron
 A04AA05 Palonosétron
-A04AA55 Palonosétron, associations
-A04AD Autres antiémétiques
-A04AD01 Scopolamine
+A04AA55 Palonosétron, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A04</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A04A Antiémétiques et antinauséeux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A04AD Autres antiémétiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A04AD01 Scopolamine
 A04AD02 oxalate de cérium
 A04AD04 Chlorobutanol
 A04AD05 Métopimazine
